--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.75159946814927</v>
+        <v>89.47365192677091</v>
       </c>
       <c r="D2" t="n">
-        <v>3.883285391628392</v>
+        <v>3.813857142653613</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.32667127247394</v>
+        <v>88.99133106697505</v>
       </c>
       <c r="D3" t="n">
-        <v>4.241050304668822</v>
+        <v>3.241245479812738</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.76804673691842</v>
+        <v>87.24363395440452</v>
       </c>
       <c r="D4" t="n">
-        <v>4.272409506395124</v>
+        <v>4.021547988885659</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.99655424827907</v>
+        <v>86.44362286304293</v>
       </c>
       <c r="D5" t="n">
-        <v>4.633649929644429</v>
+        <v>4.501632778307965</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.73708654852841</v>
+        <v>85.2385180453478</v>
       </c>
       <c r="D6" t="n">
-        <v>4.486239593562295</v>
+        <v>5.451738433283922</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.25074904828789</v>
+        <v>84.53327181391603</v>
       </c>
       <c r="D7" t="n">
-        <v>4.311626203547133</v>
+        <v>4.916032265987957</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.172754960875</v>
+        <v>83.81340113591602</v>
       </c>
       <c r="D8" t="n">
-        <v>3.926648755127752</v>
+        <v>4.409088807116952</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.05166378115875</v>
+        <v>82.16163072055141</v>
       </c>
       <c r="D9" t="n">
-        <v>4.567922051798032</v>
+        <v>4.842433915129423</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.8407372056152</v>
+        <v>82.26449223507174</v>
       </c>
       <c r="D10" t="n">
-        <v>3.662891712148432</v>
+        <v>4.297426026377924</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.84412486615196</v>
+        <v>79.84651460746544</v>
       </c>
       <c r="D11" t="n">
-        <v>4.487661301931737</v>
+        <v>5.024462253351405</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.75164136529435</v>
+        <v>79.49047627883168</v>
       </c>
       <c r="D12" t="n">
-        <v>4.932735224915074</v>
+        <v>4.681886785526684</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.36286525092288</v>
+        <v>79.6754685884423</v>
       </c>
       <c r="D13" t="n">
-        <v>4.366799547090367</v>
+        <v>4.161875103190021</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.1781522707858</v>
+        <v>78.46602736004515</v>
       </c>
       <c r="D14" t="n">
-        <v>4.948368360346661</v>
+        <v>4.849691383376707</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.48340116481867</v>
+        <v>75.48636876972104</v>
       </c>
       <c r="D15" t="n">
-        <v>5.18229814672604</v>
+        <v>5.774620216203056</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.8686907397734</v>
+        <v>74.69769110339246</v>
       </c>
       <c r="D16" t="n">
-        <v>4.458153523545062</v>
+        <v>5.202063257666531</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.86185263346506</v>
+        <v>74.7898773229454</v>
       </c>
       <c r="D17" t="n">
-        <v>4.866657719610293</v>
+        <v>5.028447119533525</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.47196309639085</v>
+        <v>73.23331995383664</v>
       </c>
       <c r="D18" t="n">
-        <v>4.626536372123444</v>
+        <v>5.099482270419949</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.59277736994206</v>
+        <v>72.11787488920649</v>
       </c>
       <c r="D19" t="n">
-        <v>4.77079502999185</v>
+        <v>5.72695583270518</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.49195451078901</v>
+        <v>70.87813385273378</v>
       </c>
       <c r="D20" t="n">
-        <v>6.716568118424284</v>
+        <v>5.749247868807673</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.65990498078277</v>
+        <v>69.52464345050382</v>
       </c>
       <c r="D21" t="n">
-        <v>4.599180968242624</v>
+        <v>5.523625318277513</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.74783889680209</v>
+        <v>68.95336695063693</v>
       </c>
       <c r="D22" t="n">
-        <v>5.692128503551653</v>
+        <v>5.545416368448337</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.03206989274395</v>
+        <v>68.138861829699</v>
       </c>
       <c r="D23" t="n">
-        <v>5.096931515715766</v>
+        <v>6.148030964109816</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.36010837753807</v>
+        <v>67.08439562490396</v>
       </c>
       <c r="D24" t="n">
-        <v>5.565600475542034</v>
+        <v>6.283995755223336</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.86344610884687</v>
+        <v>67.07180076553392</v>
       </c>
       <c r="D25" t="n">
-        <v>6.248846640247248</v>
+        <v>5.241298858009762</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.05446671681493</v>
+        <v>65.40462846703659</v>
       </c>
       <c r="D26" t="n">
-        <v>5.686306435745233</v>
+        <v>5.060162623149523</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.36425742533217</v>
+        <v>64.12189019469656</v>
       </c>
       <c r="D27" t="n">
-        <v>6.335345924220112</v>
+        <v>5.651055849806089</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.76622715680756</v>
+        <v>63.61600829943986</v>
       </c>
       <c r="D28" t="n">
-        <v>4.873591032529298</v>
+        <v>6.174663421943125</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.92960098885059</v>
+        <v>63.29407002414685</v>
       </c>
       <c r="D29" t="n">
-        <v>5.831293069356415</v>
+        <v>5.461915838236708</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.16782524489226</v>
+        <v>61.51334842153305</v>
       </c>
       <c r="D30" t="n">
-        <v>6.116260229806604</v>
+        <v>6.016111272246056</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.00493057904264</v>
+        <v>59.44668159559687</v>
       </c>
       <c r="D31" t="n">
-        <v>6.42132707839321</v>
+        <v>6.595544556013085</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.55125576753512</v>
+        <v>59.64712691765096</v>
       </c>
       <c r="D32" t="n">
-        <v>6.002369363960514</v>
+        <v>5.258663768721569</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.274131940598</v>
+        <v>58.07782309352829</v>
       </c>
       <c r="D33" t="n">
-        <v>6.311218954898384</v>
+        <v>6.394928033664253</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.76642714372906</v>
+        <v>57.48748703089305</v>
       </c>
       <c r="D34" t="n">
-        <v>6.440248066270469</v>
+        <v>6.177037390471172</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.30297185493348</v>
+        <v>56.44826039672706</v>
       </c>
       <c r="D35" t="n">
-        <v>6.347955372139394</v>
+        <v>5.56913418959497</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.16997912578401</v>
+        <v>54.38716733672242</v>
       </c>
       <c r="D36" t="n">
-        <v>6.82642804957641</v>
+        <v>6.824647819465937</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.30119197649644</v>
+        <v>54.7523114188552</v>
       </c>
       <c r="D37" t="n">
-        <v>5.586192226577919</v>
+        <v>6.389250945026453</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.67166904293601</v>
+        <v>52.56124942381038</v>
       </c>
       <c r="D38" t="n">
-        <v>7.770592893520828</v>
+        <v>6.864630393251478</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.36449944102983</v>
+        <v>51.57036277096787</v>
       </c>
       <c r="D39" t="n">
-        <v>7.557166218745684</v>
+        <v>6.920756640182889</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.27219886332406</v>
+        <v>50.36538199831143</v>
       </c>
       <c r="D40" t="n">
-        <v>7.326769633759894</v>
+        <v>6.618230090993357</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.81522415104006</v>
+        <v>50.47019433195155</v>
       </c>
       <c r="D41" t="n">
-        <v>5.8319633499395</v>
+        <v>6.474803190547964</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.14164014508335</v>
+        <v>49.00185275060483</v>
       </c>
       <c r="D42" t="n">
-        <v>5.980554990457216</v>
+        <v>6.231678733975881</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.14262167159168</v>
+        <v>47.87872374877963</v>
       </c>
       <c r="D43" t="n">
-        <v>6.149168176698913</v>
+        <v>6.170774788012444</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.11720382041459</v>
+        <v>47.51164815440022</v>
       </c>
       <c r="D44" t="n">
-        <v>5.923694982854811</v>
+        <v>5.743078471690963</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.54952349542831</v>
+        <v>46.01423056281913</v>
       </c>
       <c r="D45" t="n">
-        <v>6.943491026396051</v>
+        <v>7.256241800200175</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.64010626038312</v>
+        <v>45.62794061740107</v>
       </c>
       <c r="D46" t="n">
-        <v>6.504825080138557</v>
+        <v>6.581076715132156</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.6422791609133</v>
+        <v>45.13360453479942</v>
       </c>
       <c r="D47" t="n">
-        <v>7.19218521486481</v>
+        <v>7.877977505922071</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.56220721554158</v>
+        <v>42.41069931880348</v>
       </c>
       <c r="D48" t="n">
-        <v>7.522366668810016</v>
+        <v>7.878130553673266</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.67969627877105</v>
+        <v>41.93919441380022</v>
       </c>
       <c r="D49" t="n">
-        <v>7.074266542555902</v>
+        <v>7.208847349145857</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.6120005703857</v>
+        <v>42.55354479604003</v>
       </c>
       <c r="D50" t="n">
-        <v>6.894610313781338</v>
+        <v>6.656525697555022</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.64136603630505</v>
+        <v>39.93086068419002</v>
       </c>
       <c r="D51" t="n">
-        <v>7.54222605187818</v>
+        <v>8.446745873122241</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.00068302390136</v>
+        <v>39.01464502394275</v>
       </c>
       <c r="D52" t="n">
-        <v>7.906820538741957</v>
+        <v>7.918013436986936</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.89398250447824</v>
+        <v>38.46141457890425</v>
       </c>
       <c r="D53" t="n">
-        <v>8.302936855059716</v>
+        <v>6.590591186751455</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03245208575625</v>
+        <v>37.09482696834299</v>
       </c>
       <c r="D54" t="n">
-        <v>7.64833048820746</v>
+        <v>7.98849206114011</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.36763115096736</v>
+        <v>35.17232050039751</v>
       </c>
       <c r="D55" t="n">
-        <v>8.967902560463779</v>
+        <v>8.324470928524432</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.8890347184641</v>
+        <v>35.54734827428474</v>
       </c>
       <c r="D56" t="n">
-        <v>7.844948790854846</v>
+        <v>8.86040361606385</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.729036487782</v>
+        <v>34.08965888537092</v>
       </c>
       <c r="D57" t="n">
-        <v>7.793092186763642</v>
+        <v>7.729233737886559</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.37824007133556</v>
+        <v>32.65325832092066</v>
       </c>
       <c r="D58" t="n">
-        <v>6.97122447830179</v>
+        <v>7.389916894931815</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.46007105220334</v>
+        <v>31.43473337022439</v>
       </c>
       <c r="D59" t="n">
-        <v>8.697527412745465</v>
+        <v>9.605606385062725</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.51480291052196</v>
+        <v>29.51543700521269</v>
       </c>
       <c r="D60" t="n">
-        <v>8.614635801926863</v>
+        <v>9.250326414091044</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.66737737471061</v>
+        <v>29.36477158221426</v>
       </c>
       <c r="D61" t="n">
-        <v>8.045366114244489</v>
+        <v>10.12872881435608</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.31387828878995</v>
+        <v>28.66995357371692</v>
       </c>
       <c r="D62" t="n">
-        <v>8.287145305594715</v>
+        <v>8.962464272732127</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.13527665654156</v>
+        <v>28.05508164618832</v>
       </c>
       <c r="D63" t="n">
-        <v>9.258377724435464</v>
+        <v>9.052324923043704</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.78494415394045</v>
+        <v>28.94306869615831</v>
       </c>
       <c r="D64" t="n">
-        <v>8.369823684875863</v>
+        <v>7.921795428220275</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.39300957989519</v>
+        <v>26.01697427537611</v>
       </c>
       <c r="D65" t="n">
-        <v>9.435612765011378</v>
+        <v>7.76818119474301</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.02970256966154</v>
+        <v>23.39779689369631</v>
       </c>
       <c r="D66" t="n">
-        <v>8.931819323555004</v>
+        <v>9.665785144723204</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.22462344866899</v>
+        <v>23.48388201579496</v>
       </c>
       <c r="D67" t="n">
-        <v>9.190145053394616</v>
+        <v>7.36502955813833</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.05160715571986</v>
+        <v>23.50534727044119</v>
       </c>
       <c r="D68" t="n">
-        <v>8.376958254489391</v>
+        <v>8.209951346607061</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.74899743250578</v>
+        <v>21.08929070861365</v>
       </c>
       <c r="D69" t="n">
-        <v>8.941605877760196</v>
+        <v>10.15650729360548</v>
       </c>
     </row>
   </sheetData>
